--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10185" tabRatio="500" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10185" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="목차" sheetId="1" r:id="rId4"/>
@@ -21,171 +21,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+  <x:si>
+    <x:t>사용자 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>v1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토픽명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 허용되는 주소("있기","no")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별("man","woman")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 허용되는 성별("man","woman,"both","no")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>auth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초안작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clubId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number</x:t>
+  </x:si>
   <x:si>
     <x:t>수정된 시각</x:t>
   </x:si>
   <x:si>
+    <x:t>Club</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ownerId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성된 시각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 생성한 유저아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 허용되는 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auto Increment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Essential</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>username</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clubname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>created_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get/post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/auth/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용되는 최대 멤버수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.11.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 유저의 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updated_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberMax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용되는 최소 멤버수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>meberMin</x:t>
+  </x:si>
+  <x:si>
     <x:t>Join(User(User.id)와 Club(Club.id)의 1대다 조인 연결)</x:t>
   </x:si>
   <x:si>
-    <x:t>ownerId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Club</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동아리 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clubId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>auth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.11.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Essential</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초안작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동아리 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>v1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>username</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>created_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동아리 생성한 유저아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/auth/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clubname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 유저의 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Auto Increment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성된 시각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updated_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별("man","woman")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 허용되는 성별("man","woman,"both","no")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>memberMax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용되는 최대 멤버수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 허용되는 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토픽명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용되는 최소 멤버수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>meberMin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get/post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 허용되는 주소("있기","no")</x:t>
+    <x:t>email</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -325,7 +337,7 @@
   </x:cellXfs>
   <x:cellStyles count="3">
     <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-    <x:cellStyle name="표준" xfId="2" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="2"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -987,7 +999,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:D12"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="G8" activeCellId="0" sqref="G8:G8"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1001,24 +1013,24 @@
   <x:sheetData>
     <x:row r="2" spans="2:4">
       <x:c r="B2" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
@@ -1067,7 +1079,7 @@
       <x:c r="D12" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1077,8 +1089,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B2:O13"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="F21" activeCellId="0" sqref="F21:F21"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1103,165 +1115,165 @@
   <x:sheetData>
     <x:row r="2" spans="2:12" s="4" customFormat="1">
       <x:c r="B2" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L2" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:15">
       <x:c r="B3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G3" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H3" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H3" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="I3" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J3" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L3" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M3" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="J3" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L3" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="M3" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="N3" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O3" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:15">
       <x:c r="B4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L4" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N4" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="O4" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:15">
       <x:c r="B5" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H5" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N5" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O5" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:15">
       <x:c r="B6" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H6" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G6" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H6" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="I6" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J6" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O6" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -1269,161 +1281,185 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H7" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
       <x:c r="B8" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H8" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H9" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J11" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G12" s="5" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
+      <x:c r="H12" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I12" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J12" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="J11" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="7:10">
-      <x:c r="G12" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H12" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I12" s="5" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="J12" s="5" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="7:10">
+      <x:c r="C13" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="G13" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I13" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J13" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1433,7 +1469,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B2:E20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="E2" activeCellId="0" sqref="E2:E2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1448,24 +1484,24 @@
   <x:sheetData>
     <x:row r="2" spans="2:5" s="3" customFormat="1">
       <x:c r="B2" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D3" s="2"/>
       <x:c r="E3" s="2"/>
@@ -1573,7 +1609,7 @@
       <x:c r="E20" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -21,87 +21,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+  <x:si>
+    <x:t>현재 멤버수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberMin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 허용되는 주소("있기","no")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 허용되는 성별("man","woman,"both","no")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토픽명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>v1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별("man","woman")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Club</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ownerId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초안작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정된 시각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clubId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 날짜</x:t>
+  </x:si>
   <x:si>
     <x:t>사용자 이메일</x:t>
   </x:si>
   <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>v1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토픽명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 허용되는 주소("있기","no")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별("man","woman")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 허용되는 성별("man","woman,"both","no")</x:t>
-  </x:si>
-  <x:si>
     <x:t>auth</x:t>
   </x:si>
   <x:si>
-    <x:t>수정내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초안작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clubId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정된 시각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Club</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동아리 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ownerId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
+    <x:t>생성된 시각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
   </x:si>
   <x:si>
     <x:t>Type</x:t>
@@ -110,22 +125,73 @@
     <x:t>gender</x:t>
   </x:si>
   <x:si>
-    <x:t>String</x:t>
+    <x:t>사용자 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
   </x:si>
   <x:si>
     <x:t>address</x:t>
   </x:si>
   <x:si>
-    <x:t>생성된 시각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동아리 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 주소</x:t>
+    <x:t>get/post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Essential</x:t>
+  </x:si>
+  <x:si>
+    <x:t>created_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>username</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.11.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/auth/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberMax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 유저의 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updated_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용되는 최대 멤버수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clubname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용되는 최소 멤버수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auto Increment</x:t>
   </x:si>
   <x:si>
     <x:t>동아리 생성한 유저아이디</x:t>
@@ -134,70 +200,10 @@
     <x:t>사용자의 허용되는 나이</x:t>
   </x:si>
   <x:si>
-    <x:t>Auto Increment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Essential</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>username</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clubname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>created_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get/post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/auth/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용되는 최대 멤버수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.11.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 유저의 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updated_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>memberMax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용되는 최소 멤버수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>meberMin</x:t>
+    <x:t>memberCurrnet</x:t>
   </x:si>
   <x:si>
     <x:t>Join(User(User.id)와 Club(Club.id)의 1대다 조인 연결)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1013,24 +1019,24 @@
   <x:sheetData>
     <x:row r="2" spans="2:4">
       <x:c r="B2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
@@ -1079,7 +1085,7 @@
       <x:c r="D12" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1087,7 +1093,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="B2:O13"/>
+  <x:dimension ref="B2:O14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
@@ -1101,7 +1107,7 @@
     <x:col min="4" max="4" width="19.6171875" style="3" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="9.00390625" style="3"/>
     <x:col min="6" max="6" width="1.77734375" style="3" customWidth="1"/>
-    <x:col min="7" max="7" width="13.5390625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
     <x:col min="8" max="8" width="9.00390625" style="3"/>
     <x:col min="9" max="9" width="45.43359375" style="3" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="9.00390625" style="3"/>
@@ -1115,118 +1121,118 @@
   <x:sheetData>
     <x:row r="2" spans="2:12" s="4" customFormat="1">
       <x:c r="B2" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L2" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:15">
       <x:c r="B3" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H3" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I3" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J3" s="5" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="J3" s="5" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="L3" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M3" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N3" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O3" s="5" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="O3" s="5" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:15">
       <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H4" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M4" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="N4" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O4" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:15">
       <x:c r="B5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H5" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s">
         <x:v>19</x:v>
@@ -1235,7 +1241,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O5" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:15">
@@ -1246,10 +1252,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G6" s="5" t="s">
         <x:v>5</x:v>
@@ -1258,126 +1264,126 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I6" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J6" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O6" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
       <x:c r="B7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
       <x:c r="B8" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H8" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H9" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
       <x:c r="B10" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -1385,81 +1391,95 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:10">
       <x:c r="B12" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G12" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I12" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E12" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G12" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H12" s="5" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I12" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="J12" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G13" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H13" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I13" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="J13" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="7:10">
+      <x:c r="G14" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H14" s="5" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="E13" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G13" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H13" s="5" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I13" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J13" s="5" t="s">
-        <x:v>8</x:v>
+      <x:c r="I14" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J14" s="5" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1484,24 +1504,24 @@
   <x:sheetData>
     <x:row r="2" spans="2:5" s="3" customFormat="1">
       <x:c r="B2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D3" s="2"/>
       <x:c r="E3" s="2"/>
@@ -1609,7 +1629,7 @@
       <x:c r="E20" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>